--- a/scripts/masters-2018.xlsx
+++ b/scripts/masters-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5ECF9D31-6826-9840-86B1-C5321858B1C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2594E4B5-2512-1643-B0BD-0845189A3D05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="620" windowWidth="14400" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13380" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="146">
   <si>
     <t>Tier A</t>
   </si>
@@ -473,6 +473,21 @@
   </si>
   <si>
     <t>Drew Serruto</t>
+  </si>
+  <si>
+    <t>Nick Royer</t>
+  </si>
+  <si>
+    <t>Kendall Kadish</t>
+  </si>
+  <si>
+    <t>Lorenzo Washington</t>
+  </si>
+  <si>
+    <t>Matt Bobson</t>
+  </si>
+  <si>
+    <t>Ryan Aguiar</t>
   </si>
 </sst>
 </file>
@@ -826,7 +841,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,22 +878,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1149,7 +1164,7 @@
   <dimension ref="B2:T50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1296,23 +1311,23 @@
       <c r="M11" s="20"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="I13" s="43" t="s">
+      <c r="G13" s="47"/>
+      <c r="I13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="L13" s="43" t="s">
+      <c r="J13" s="47"/>
+      <c r="L13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="43"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:20" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="15" t="s">
@@ -1419,7 +1434,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B16" s="26">
-        <f>B15+1</f>
+        <f t="shared" ref="B16:B24" si="0">B15+1</f>
         <v>2</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -1429,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="E16" s="26">
-        <f>E15+1</f>
+        <f t="shared" ref="E16:E30" si="1">E15+1</f>
         <v>12</v>
       </c>
       <c r="F16" s="25" t="s">
@@ -1439,7 +1454,7 @@
         <v>2200</v>
       </c>
       <c r="H16" s="26">
-        <f>H15+1</f>
+        <f t="shared" ref="H16:H41" si="2">H15+1</f>
         <v>28</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -1449,7 +1464,7 @@
         <v>8000</v>
       </c>
       <c r="K16" s="26">
-        <f>K15+1</f>
+        <f t="shared" ref="K16:K48" si="3">K15+1</f>
         <v>55</v>
       </c>
       <c r="L16" s="25" t="s">
@@ -1481,7 +1496,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17" s="26">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -1491,7 +1506,7 @@
         <v>1000</v>
       </c>
       <c r="E17" s="26">
-        <f>E16+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F17" s="25" t="s">
@@ -1501,7 +1516,7 @@
         <v>2800</v>
       </c>
       <c r="H17" s="26">
-        <f>H16+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="I17" s="25" t="s">
@@ -1511,7 +1526,7 @@
         <v>8000</v>
       </c>
       <c r="K17" s="26">
-        <f>K16+1</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="L17" s="25" t="s">
@@ -1523,7 +1538,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="26">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -1533,7 +1548,7 @@
         <v>1100</v>
       </c>
       <c r="E18" s="26">
-        <f>E17+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F18" s="25" t="s">
@@ -1543,7 +1558,7 @@
         <v>3300</v>
       </c>
       <c r="H18" s="26">
-        <f>H17+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I18" s="25" t="s">
@@ -1553,7 +1568,7 @@
         <v>8000</v>
       </c>
       <c r="K18" s="26">
-        <f>K17+1</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="L18" s="25" t="s">
@@ -1565,7 +1580,7 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B19" s="26">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -1575,7 +1590,7 @@
         <v>1100</v>
       </c>
       <c r="E19" s="26">
-        <f>E18+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F19" s="25" t="s">
@@ -1585,7 +1600,7 @@
         <v>4000</v>
       </c>
       <c r="H19" s="26">
-        <f>H18+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="I19" s="25" t="s">
@@ -1595,7 +1610,7 @@
         <v>8000</v>
       </c>
       <c r="K19" s="26">
-        <f>K18+1</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="L19" s="25" t="s">
@@ -1607,7 +1622,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="26">
-        <f>B19+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -1617,7 +1632,7 @@
         <v>1400</v>
       </c>
       <c r="E20" s="26">
-        <f>E19+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -1627,7 +1642,7 @@
         <v>4000</v>
       </c>
       <c r="H20" s="26">
-        <f>H19+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="I20" s="25" t="s">
@@ -1637,7 +1652,7 @@
         <v>8000</v>
       </c>
       <c r="K20" s="26">
-        <f>K19+1</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="L20" s="25" t="s">
@@ -1649,7 +1664,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="26">
-        <f>B20+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -1659,7 +1674,7 @@
         <v>1400</v>
       </c>
       <c r="E21" s="26">
-        <f>E20+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="F21" s="25" t="s">
@@ -1669,7 +1684,7 @@
         <v>4000</v>
       </c>
       <c r="H21" s="26">
-        <f>H20+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="I21" s="25" t="s">
@@ -1679,7 +1694,7 @@
         <v>8000</v>
       </c>
       <c r="K21" s="26">
-        <f>K20+1</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="L21" s="25" t="s">
@@ -1691,7 +1706,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B22" s="26">
-        <f>B21+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -1701,7 +1716,7 @@
         <v>1600</v>
       </c>
       <c r="E22" s="26">
-        <f>E21+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -1711,7 +1726,7 @@
         <v>4000</v>
       </c>
       <c r="H22" s="26">
-        <f>H21+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="I22" s="25" t="s">
@@ -1721,7 +1736,7 @@
         <v>8000</v>
       </c>
       <c r="K22" s="26">
-        <f>K21+1</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="L22" s="25" t="s">
@@ -1733,7 +1748,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" s="26">
-        <f>B22+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -1743,7 +1758,7 @@
         <v>1600</v>
       </c>
       <c r="E23" s="26">
-        <f>E22+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="F23" s="25" t="s">
@@ -1753,7 +1768,7 @@
         <v>4000</v>
       </c>
       <c r="H23" s="26">
-        <f>H22+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="I23" s="25" t="s">
@@ -1763,7 +1778,7 @@
         <v>10000</v>
       </c>
       <c r="K23" s="26">
-        <f>K22+1</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="L23" s="25" t="s">
@@ -1775,7 +1790,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="26">
-        <f>B23+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -1785,7 +1800,7 @@
         <v>1800</v>
       </c>
       <c r="E24" s="26">
-        <f>E23+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -1795,7 +1810,7 @@
         <v>5000</v>
       </c>
       <c r="H24" s="26">
-        <f>H23+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="I24" s="25" t="s">
@@ -1805,7 +1820,7 @@
         <v>10000</v>
       </c>
       <c r="K24" s="26">
-        <f>K23+1</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="L24" s="25" t="s">
@@ -1818,9 +1833,9 @@
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B25" s="26"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="54"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="26">
-        <f>E24+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="F25" s="25" t="s">
@@ -1830,7 +1845,7 @@
         <v>5000</v>
       </c>
       <c r="H25" s="26">
-        <f>H24+1</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="I25" s="25" t="s">
@@ -1840,7 +1855,7 @@
         <v>10000</v>
       </c>
       <c r="K25" s="26">
-        <f>K24+1</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="L25" s="25" t="s">
@@ -1853,9 +1868,9 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B26" s="26"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="54"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="26">
-        <f>E25+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="F26" s="25" t="s">
@@ -1865,7 +1880,7 @@
         <v>5000</v>
       </c>
       <c r="H26" s="26">
-        <f>H25+1</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="I26" s="25" t="s">
@@ -1875,7 +1890,7 @@
         <v>10000</v>
       </c>
       <c r="K26" s="26">
-        <f>K25+1</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="L26" s="25" t="s">
@@ -1888,9 +1903,9 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" s="26"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="54"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="26">
-        <f>E26+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="F27" s="25" t="s">
@@ -1900,7 +1915,7 @@
         <v>5000</v>
       </c>
       <c r="H27" s="26">
-        <f>H26+1</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="I27" s="25" t="s">
@@ -1910,7 +1925,7 @@
         <v>10000</v>
       </c>
       <c r="K27" s="26">
-        <f>K26+1</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="L27" s="25" t="s">
@@ -1923,9 +1938,9 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B28" s="26"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="54"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="26">
-        <f>E27+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -1935,7 +1950,7 @@
         <v>6600</v>
       </c>
       <c r="H28" s="26">
-        <f>H27+1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I28" s="25" t="s">
@@ -1945,7 +1960,7 @@
         <v>10000</v>
       </c>
       <c r="K28" s="26">
-        <f>K27+1</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="L28" s="25" t="s">
@@ -1957,7 +1972,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E29" s="26">
-        <f>E28+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F29" s="25" t="s">
@@ -1967,7 +1982,7 @@
         <v>6600</v>
       </c>
       <c r="H29" s="26">
-        <f>H28+1</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I29" s="25" t="s">
@@ -1977,7 +1992,7 @@
         <v>10000</v>
       </c>
       <c r="K29" s="26">
-        <f>K28+1</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="L29" s="25" t="s">
@@ -1989,7 +2004,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E30" s="26">
-        <f>E29+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="F30" s="25" t="s">
@@ -1999,7 +2014,7 @@
         <v>6600</v>
       </c>
       <c r="H30" s="26">
-        <f>H29+1</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="I30" s="25" t="s">
@@ -2009,7 +2024,7 @@
         <v>10000</v>
       </c>
       <c r="K30" s="26">
-        <f>K29+1</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="L30" s="25" t="s">
@@ -2020,11 +2035,11 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E31" s="55"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="38"/>
       <c r="G31" s="22"/>
       <c r="H31" s="26">
-        <f>H30+1</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="I31" s="25" t="s">
@@ -2034,7 +2049,7 @@
         <v>12500</v>
       </c>
       <c r="K31" s="26">
-        <f>K30+1</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="L31" s="25" t="s">
@@ -2045,11 +2060,11 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E32" s="55"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="38"/>
       <c r="G32" s="22"/>
       <c r="H32" s="26">
-        <f>H31+1</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="I32" s="25" t="s">
@@ -2059,7 +2074,7 @@
         <v>12500</v>
       </c>
       <c r="K32" s="26">
-        <f>K31+1</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="L32" s="25" t="s">
@@ -2070,11 +2085,11 @@
       </c>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E33" s="55"/>
+      <c r="E33" s="44"/>
       <c r="F33" s="38"/>
       <c r="G33" s="22"/>
       <c r="H33" s="26">
-        <f>H32+1</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="I33" s="25" t="s">
@@ -2084,7 +2099,7 @@
         <v>12500</v>
       </c>
       <c r="K33" s="26">
-        <f>K32+1</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="L33" s="25" t="s">
@@ -2095,11 +2110,11 @@
       </c>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E34" s="55"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="38"/>
       <c r="G34" s="22"/>
       <c r="H34" s="26">
-        <f>H33+1</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="I34" s="25" t="s">
@@ -2109,7 +2124,7 @@
         <v>12500</v>
       </c>
       <c r="K34" s="26">
-        <f>K33+1</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="L34" s="25" t="s">
@@ -2124,7 +2139,7 @@
       <c r="F35" s="38"/>
       <c r="G35" s="22"/>
       <c r="H35" s="26">
-        <f>H34+1</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="I35" s="25" t="s">
@@ -2134,7 +2149,7 @@
         <v>15000</v>
       </c>
       <c r="K35" s="26">
-        <f>K34+1</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="L35" s="25" t="s">
@@ -2149,7 +2164,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="22"/>
       <c r="H36" s="26">
-        <f>H35+1</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="I36" s="25" t="s">
@@ -2159,7 +2174,7 @@
         <v>15000</v>
       </c>
       <c r="K36" s="26">
-        <f>K35+1</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="L36" s="25" t="s">
@@ -2174,7 +2189,7 @@
       <c r="F37" s="38"/>
       <c r="G37" s="22"/>
       <c r="H37" s="26">
-        <f>H36+1</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="I37" s="25" t="s">
@@ -2184,7 +2199,7 @@
         <v>15000</v>
       </c>
       <c r="K37" s="26">
-        <f>K36+1</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="L37" s="25" t="s">
@@ -2196,7 +2211,7 @@
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.15">
       <c r="H38" s="26">
-        <f>H37+1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I38" s="25" t="s">
@@ -2206,7 +2221,7 @@
         <v>15000</v>
       </c>
       <c r="K38" s="26">
-        <f>K37+1</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="L38" s="25" t="s">
@@ -2218,7 +2233,7 @@
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.15">
       <c r="H39" s="26">
-        <f>H38+1</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="I39" s="25" t="s">
@@ -2228,7 +2243,7 @@
         <v>15000</v>
       </c>
       <c r="K39" s="26">
-        <f>K38+1</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="L39" s="25" t="s">
@@ -2240,7 +2255,7 @@
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.15">
       <c r="H40" s="26">
-        <f>H39+1</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="I40" s="25" t="s">
@@ -2250,7 +2265,7 @@
         <v>15000</v>
       </c>
       <c r="K40" s="26">
-        <f>K39+1</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="L40" s="25" t="s">
@@ -2262,7 +2277,7 @@
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.15">
       <c r="H41" s="26">
-        <f>H40+1</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="I41" s="25" t="s">
@@ -2272,7 +2287,7 @@
         <v>15000</v>
       </c>
       <c r="K41" s="26">
-        <f>K40+1</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="L41" s="25" t="s">
@@ -2287,7 +2302,7 @@
       <c r="I42" s="38"/>
       <c r="J42" s="22"/>
       <c r="K42" s="26">
-        <f>K41+1</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="L42" s="25" t="s">
@@ -2302,7 +2317,7 @@
       <c r="I43" s="38"/>
       <c r="J43" s="22"/>
       <c r="K43" s="26">
-        <f>K42+1</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="L43" s="25" t="s">
@@ -2317,7 +2332,7 @@
       <c r="I44" s="38"/>
       <c r="J44" s="22"/>
       <c r="K44" s="26">
-        <f>K43+1</f>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="L44" s="25" t="s">
@@ -2332,7 +2347,7 @@
       <c r="I45" s="38"/>
       <c r="J45" s="22"/>
       <c r="K45" s="26">
-        <f>K44+1</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="L45" s="25" t="s">
@@ -2347,7 +2362,7 @@
       <c r="I46" s="38"/>
       <c r="J46" s="22"/>
       <c r="K46" s="26">
-        <f>K45+1</f>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="L46" s="25" t="s">
@@ -2362,7 +2377,7 @@
       <c r="I47" s="38"/>
       <c r="J47" s="22"/>
       <c r="K47" s="26">
-        <f>K46+1</f>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="L47" s="25" t="s">
@@ -2374,7 +2389,7 @@
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.15">
       <c r="K48" s="26">
-        <f>K47+1</f>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="L48" s="25" t="s">
@@ -2445,50 +2460,50 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53" t="s">
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="47" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="47" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
@@ -2527,7 +2542,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="46"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2542,30 +2557,30 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="47" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="47" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="45"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -2604,7 +2619,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="46"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2619,30 +2634,30 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="47" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="47" t="s">
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
@@ -2681,7 +2696,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="46"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2696,30 +2711,30 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="47" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="47" t="s">
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2758,7 +2773,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="46"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2895,13 +2910,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="G14:J14"/>
@@ -2914,6 +2922,13 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2923,16 +2938,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:C95"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3192,13 +3208,13 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="45" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3206,37 +3222,37 @@
       <c r="A32" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="45" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="45" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
+      <c r="A35" s="45"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
@@ -3277,7 +3293,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B40" t="s">
@@ -3573,7 +3589,7 @@
         <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3581,10 +3597,10 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3675,47 +3691,347 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="57" t="s">
+      <c r="A87" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="57" t="s">
+      <c r="C87" s="46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="57" t="s">
+      <c r="B88" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C88" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="57" t="s">
+      <c r="B89" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C89" s="46" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="57" t="s">
+      <c r="A90" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="C90" s="46" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/masters-2018.xlsx
+++ b/scripts/masters-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2594E4B5-2512-1643-B0BD-0845189A3D05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E84C989-DD4F-4043-AF6E-BE7CBEBEA2FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="147">
   <si>
     <t>Tier A</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Ryan Aguiar</t>
+  </si>
+  <si>
+    <t>Matt Kilianski</t>
   </si>
 </sst>
 </file>
@@ -2938,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4034,6 +4037,66 @@
         <v>107</v>
       </c>
     </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>82</v>
+      </c>
+      <c r="B132" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/scripts/masters-2018.xlsx
+++ b/scripts/masters-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E84C989-DD4F-4043-AF6E-BE7CBEBEA2FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D04753-AB62-1748-A4A6-D4EA86EBFCF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="149">
   <si>
     <t>Tier A</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>Matt Kilianski</t>
+  </si>
+  <si>
+    <t>Brendan McCausland</t>
+  </si>
+  <si>
+    <t>Kevin O'Brien</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1173,7 @@
   <dimension ref="B2:T50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2941,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4097,6 +4103,126 @@
         <v>107</v>
       </c>
     </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B135" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C135" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>79</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B142" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C142" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/scripts/masters-2018.xlsx
+++ b/scripts/masters-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D04753-AB62-1748-A4A6-D4EA86EBFCF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7745A3FE-9FA5-6141-815C-5B5F19D5CE8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="150">
   <si>
     <t>Tier A</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Kevin O'Brien</t>
+  </si>
+  <si>
+    <t>Cameron Weimer</t>
   </si>
 </sst>
 </file>
@@ -2947,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149:C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4223,6 +4226,66 @@
         <v>53</v>
       </c>
     </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>58</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" t="s">
+        <v>64</v>
+      </c>
+      <c r="C151" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" t="s">
+        <v>108</v>
+      </c>
+      <c r="C153" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/scripts/masters-2018.xlsx
+++ b/scripts/masters-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7745A3FE-9FA5-6141-815C-5B5F19D5CE8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA84F008-B540-7746-A04E-3EBA299E1D5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="151">
   <si>
     <t>Tier A</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>Cameron Weimer</t>
+  </si>
+  <si>
+    <t>Cameron Anderson</t>
   </si>
 </sst>
 </file>
@@ -2950,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149:C149"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4286,6 +4289,66 @@
         <v>53</v>
       </c>
     </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B156" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C156" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>64</v>
+      </c>
+      <c r="B158" t="s">
+        <v>64</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>114</v>
+      </c>
+      <c r="B160" t="s">
+        <v>114</v>
+      </c>
+      <c r="C160" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/scripts/masters-2018.xlsx
+++ b/scripts/masters-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA84F008-B540-7746-A04E-3EBA299E1D5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AE437-D422-C54E-8F79-E6EF68559817}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20240" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="155">
   <si>
     <t>Tier A</t>
   </si>
@@ -503,6 +503,18 @@
   </si>
   <si>
     <t>Cameron Anderson</t>
+  </si>
+  <si>
+    <t>Freddie Couples</t>
+  </si>
+  <si>
+    <t>Charlie Hoffman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Kubaszewski </t>
+  </si>
+  <si>
+    <t>Sean Buckle</t>
   </si>
 </sst>
 </file>
@@ -2953,10 +2965,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4349,6 +4361,126 @@
         <v>114</v>
       </c>
     </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B163" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C163" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B164" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B165" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C165" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B167" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C167" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B170" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C170" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>109</v>
+      </c>
+      <c r="B171" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>66</v>
+      </c>
+      <c r="B173" t="s">
+        <v>44</v>
+      </c>
+      <c r="C173" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>108</v>
+      </c>
+      <c r="B174" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/scripts/masters-2018.xlsx
+++ b/scripts/masters-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AE437-D422-C54E-8F79-E6EF68559817}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E48303-1213-B94D-A92F-468CDF082186}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20240" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="460" windowWidth="19200" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="25" r:id="rId1"/>
@@ -875,18 +875,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,6 +891,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2487,50 +2487,50 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="48" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="55" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="55" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="53"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="53"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
@@ -2569,7 +2569,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="54"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2584,30 +2584,30 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="55" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="54"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2661,30 +2661,30 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="55" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="55" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="53"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="54"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2738,30 +2738,30 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="55" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="55" t="s">
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="53"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2800,7 +2800,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="54"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2937,6 +2937,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="G14:J14"/>
@@ -2949,13 +2956,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
